--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1779891.276660617</v>
+        <v>1777639.19694941</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.7611701629549</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>50.56405588463279</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646375</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>125.017113163757</v>
+        <v>105.3804150401596</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.61547224345964</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>399.957146489229</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -950,16 +950,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>150.3013276789174</v>
       </c>
       <c r="Y7" t="n">
-        <v>162.5493512335646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877527</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>97.18149940501786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>160.2383728284217</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>15.15436427310812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444106</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>38.37250637580554</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>132.274051163734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763447</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>138.1441996497173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365953</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.30088041042057</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>25.52471385612634</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>95.25381996636162</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>26.05480806223633</v>
+        <v>139.5115415340534</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>104.7950049175981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093616</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>100.0416311957221</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9868975105684</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>73.98898794535489</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.6754862233992</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362948</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>124.412118557032</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>183.6398007745147</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>128.3548363691468</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2704.732124870452</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2331.266366609373</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.6070935315613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>625.6709106036544</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>794.6070935315613</v>
+        <v>724.611684898784</v>
       </c>
       <c r="T4" t="n">
-        <v>794.6070935315613</v>
+        <v>502.84506946831</v>
       </c>
       <c r="U4" t="n">
-        <v>794.6070935315613</v>
+        <v>502.84506946831</v>
       </c>
       <c r="V4" t="n">
-        <v>794.6070935315613</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>794.6070935315613</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>794.6070935315613</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>794.6070935315613</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.00486941082</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.042352470408</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="D5" t="n">
-        <v>920.7766538636577</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="E5" t="n">
-        <v>920.7766538636577</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>810.0897332498354</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2788.08020873347</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>2619.144025805563</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>2619.144025805563</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>3133.919937435997</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>3133.919937435997</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U7" t="n">
-        <v>3133.919937435997</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="V7" t="n">
-        <v>3133.919937435997</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="W7" t="n">
-        <v>3133.919937435997</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="X7" t="n">
-        <v>3133.919937435997</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>2969.728673563709</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.073083428566</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>828.1105664881544</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
         <v>828.1105664881544</v>
@@ -4802,22 +4802,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
@@ -4844,10 +4844,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.8122554685</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.672923492688</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229.7326486742817</v>
+        <v>228.3690586831144</v>
       </c>
       <c r="C10" t="n">
-        <v>229.7326486742817</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>229.7326486742817</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>81.81955509188859</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>81.81955509188859</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>81.81955509188859</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>81.81955509188859</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025388</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V10" t="n">
-        <v>639.3706644025388</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W10" t="n">
-        <v>639.3706644025388</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="X10" t="n">
-        <v>411.3811135045214</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="Y10" t="n">
-        <v>411.3811135045214</v>
+        <v>410.0175235133541</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362654</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797182</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797182</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745232</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468416</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963484</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.9279362553159</v>
+        <v>951.7772127656175</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>782.8410298377106</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253748</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429818</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429818</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2408.202976129952</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2225.348141784856</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>2005.746676807797</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1716.671450151995</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.775701164064</v>
+        <v>1461.986961946108</v>
       </c>
       <c r="W13" t="n">
-        <v>1265.358531127103</v>
+        <v>1172.569791909148</v>
       </c>
       <c r="X13" t="n">
-        <v>1037.368980229086</v>
+        <v>1172.569791909148</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.5764010855556</v>
+        <v>951.7772127656175</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3045.561952449527</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C16" t="n">
-        <v>2876.62576952162</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="D16" t="n">
-        <v>2726.509130109285</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>2726.509130109285</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>2726.509130109285</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>2559.313030824165</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M16" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N16" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O16" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P16" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S16" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T16" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U16" t="n">
-        <v>3999.301626420636</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V16" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W16" t="n">
-        <v>3455.199968177784</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X16" t="n">
-        <v>3227.210417279767</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y16" t="n">
-        <v>3227.210417279767</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1965.532750177311</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>378.6527890600096</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5768,34 +5768,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
@@ -5905,55 +5905,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1053.171308869726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>884.2351259418192</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>734.1184865294834</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>586.2053929470903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>439.3154454491799</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>272.1193461640599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1683.601903741513</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.612352843496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1234.819773699966</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565524</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703128</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>526.5658826424059</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>376.4492432300701</v>
       </c>
       <c r="E28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961267</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,43 +6628,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831767</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.30283062588</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,34 +6953,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239597</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2206.395003844405</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032925</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>482.6390612909568</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,25 +7175,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397185</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.342122433613</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.987318831765</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1618.570148794805</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.580597896787</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1169.788018753257</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7427,10 +7427,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2078.61350097808</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.00274033431615</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>119.863592160094</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228309</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.150513196506608</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>84.99383243580328</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580152</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>45.04089287986224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>120.379154584331</v>
+        <v>6.922421112515792</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>181.7279934189929</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711586</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>186.142843193522</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.59775584152635</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382458872</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>72.44497470121428</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.15649395853805</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294937</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.88259428919189</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>33.76564955277357</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>38.89198472948104</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882321.2498270521</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>6.694760941172718e-10</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687971</v>
-      </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687958</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687965</v>
-      </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-976072.2357346469</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929454</v>
+        <v>352672.5099929457</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929461</v>
+        <v>352672.5099929459</v>
       </c>
       <c r="E6" t="n">
-        <v>102852.3231526124</v>
+        <v>102817.5852271762</v>
       </c>
       <c r="F6" t="n">
-        <v>428264.7849599663</v>
+        <v>428230.0470345315</v>
       </c>
       <c r="G6" t="n">
-        <v>428264.7849599671</v>
+        <v>428230.0470345316</v>
       </c>
       <c r="H6" t="n">
-        <v>428264.7849599672</v>
+        <v>428230.0470345315</v>
       </c>
       <c r="I6" t="n">
-        <v>428264.7849599672</v>
+        <v>428230.0470345315</v>
       </c>
       <c r="J6" t="n">
-        <v>210733.5825626896</v>
+        <v>210698.844637254</v>
       </c>
       <c r="K6" t="n">
-        <v>428264.7849599677</v>
+        <v>428230.0470345318</v>
       </c>
       <c r="L6" t="n">
-        <v>428264.7849599674</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="M6" t="n">
-        <v>343209.7570244556</v>
+        <v>343175.0190990196</v>
       </c>
       <c r="N6" t="n">
-        <v>428264.784959967</v>
+        <v>428230.0470345317</v>
       </c>
       <c r="O6" t="n">
-        <v>428264.7849599674</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="P6" t="n">
-        <v>428264.7849599672</v>
+        <v>428230.0470345312</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26960,17 +26960,17 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.198799748375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.9218714577281</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>298.6769128327802</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>64.75191216768489</v>
+        <v>84.3886102912823</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>308.2605734982518</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.96457916422446</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>75.40832771011975</v>
       </c>
       <c r="Y7" t="n">
-        <v>56.03530211853024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747053</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>272.5496012734512</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>7.008448270206145</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>81.19805613673</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-8.264734206300728e-14</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-2.910607430388206e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -29454,7 +29454,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31607,13 +31607,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
         <v>557.7086478970249</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214695</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q12" t="n">
-        <v>364.3208035245849</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>324.5433647340733</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>231.5286848890172</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,22 +33023,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127089</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>459.3154675919703</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,28 +33731,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>484.1423712692491</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>393.3904345522222</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>550.2163373881174</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34147,13 +34147,13 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34205,34 +34205,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>752.2150000824574</v>
       </c>
       <c r="O42" t="n">
-        <v>502.2268148619681</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34442,19 +34442,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>208.6096528357816</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525805</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071393</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.3390294385634</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789202</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>182.409330812055</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191356</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>92.97430510914305</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,22 +36671,22 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>55.96455263125056</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983787</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010482</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>316.7192231475259</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>350.1679638549188</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>416.2419299737871</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37795,13 +37795,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>620.8732879991242</v>
       </c>
       <c r="O42" t="n">
-        <v>359.6305704175236</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>66.47561891376326</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38111,13 +38111,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
